--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ054Log.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ054Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756E663A-159D-4109-B0B6-AB407D5400C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078348F9-3D2C-4ECD-AC2F-60DB8A2C9412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,10 +216,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>A:新增;C:異動</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>單獨全數受清償資料檔案</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -228,14 +224,6 @@
   </si>
   <si>
     <t>PayOffResult</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>A：於協商前已聲請強制執行並獲分配之款項，於日後領取分配款者
-B：債務人於最高限額抵押權內清償無擔保債務
-C：保證人代為清償債務
-D：廠商將分期付款產品之款項退回貸款金融機構，並沖抵貸款金融機構債務;
-E：車貸及次順位不動產抵押權經債權金融機構處分後收回款項並沖抵貸款金融機構債務</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -281,6 +269,19 @@
   <si>
     <t>ukeyEq</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增
+C:異動</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:於協商前已聲請強制執行並獲分配之款項，於日後領取分配款者
+B:債務人於最高限額抵押權內清償無擔保債務
+C:保證人代為清償債務
+D:廠商將分期付款產品之款項退回貸款金融機構，並沖抵貸款金融機構債務;
+E:車貸及次順位不動產抵押權經債權金融機構處分後收回款項並沖抵貸款金融機構債務</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -851,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -871,10 +872,10 @@
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="7"/>
@@ -899,10 +900,10 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -992,10 +993,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>18</v>
@@ -1011,10 +1012,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>18</v>
@@ -1025,7 +1026,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="32.4">
       <c r="A12" s="13">
         <v>3</v>
       </c>
@@ -1043,7 +1044,7 @@
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="13" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="194.4">
@@ -1051,10 +1052,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>18</v>
@@ -1064,7 +1065,7 @@
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="13" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1651,24 +1652,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
